--- a/plan_1.xlsx
+++ b/plan_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\Danila\training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Danila\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0803D5-1F91-4A48-A8A9-6CA57B352566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1022DF04-48BE-45CE-B729-7811637E9386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9588" yWindow="5316" windowWidth="20136" windowHeight="8412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>День 1</t>
   </si>
@@ -51,10 +51,34 @@
     <t>русские скручивания 30 сек</t>
   </si>
   <si>
-    <t>3 круга</t>
-  </si>
-  <si>
     <t>День 2</t>
+  </si>
+  <si>
+    <t>ноги</t>
+  </si>
+  <si>
+    <t>обратные шаги с гантелью 20</t>
+  </si>
+  <si>
+    <t>приседания с выпрыгиванием с гантелями 15</t>
+  </si>
+  <si>
+    <t>подъёмы на носки с гантелями 20</t>
+  </si>
+  <si>
+    <t>выпады на месте с задержкой с гантелями 10 х 2</t>
+  </si>
+  <si>
+    <t>боковые приседания с гантелью 10 х 2</t>
+  </si>
+  <si>
+    <t>приседания пистолет с гантелью с поддержкой 8 х 2</t>
+  </si>
+  <si>
+    <t>мостик с гантелью 10</t>
+  </si>
+  <si>
+    <t>4 круга</t>
   </si>
 </sst>
 </file>
@@ -82,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,13 +139,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,24 +174,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -441,89 +483,126 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5"/>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
@@ -531,6 +610,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan_1.xlsx
+++ b/plan_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Danila\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1022DF04-48BE-45CE-B729-7811637E9386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451020F-CB47-4BC9-A877-7E9040C4D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9588" yWindow="5316" windowWidth="20136" windowHeight="8412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10152" yWindow="5652" windowWidth="20136" windowHeight="8412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>День 1</t>
   </si>
@@ -36,49 +36,112 @@
     <t>x3</t>
   </si>
   <si>
-    <t>подъёмы ног 10</t>
-  </si>
-  <si>
-    <t>вокруг света 10</t>
-  </si>
-  <si>
-    <t>крест 30 сек</t>
-  </si>
-  <si>
-    <t>диагональная складка 30 сек</t>
-  </si>
-  <si>
-    <t>русские скручивания 30 сек</t>
-  </si>
-  <si>
     <t>День 2</t>
   </si>
   <si>
-    <t>ноги</t>
-  </si>
-  <si>
-    <t>обратные шаги с гантелью 20</t>
-  </si>
-  <si>
-    <t>приседания с выпрыгиванием с гантелями 15</t>
-  </si>
-  <si>
-    <t>подъёмы на носки с гантелями 20</t>
-  </si>
-  <si>
-    <t>выпады на месте с задержкой с гантелями 10 х 2</t>
-  </si>
-  <si>
-    <t>боковые приседания с гантелью 10 х 2</t>
-  </si>
-  <si>
-    <t>приседания пистолет с гантелью с поддержкой 8 х 2</t>
-  </si>
-  <si>
-    <t>мостик с гантелью 10</t>
-  </si>
-  <si>
-    <t>4 круга</t>
+    <t>сумо приседания 10</t>
+  </si>
+  <si>
+    <t>тяга бедра одной ногой 10 х 2</t>
+  </si>
+  <si>
+    <t>3 круга</t>
+  </si>
+  <si>
+    <t>подъём ровных ног</t>
+  </si>
+  <si>
+    <t>пловец</t>
+  </si>
+  <si>
+    <t>выпады назад с гантелями 10 x 2</t>
+  </si>
+  <si>
+    <t>скручивания с касанием носков</t>
+  </si>
+  <si>
+    <t>скручивание щука</t>
+  </si>
+  <si>
+    <t>русские скручивания</t>
+  </si>
+  <si>
+    <t>скручивания с поддержкой ног</t>
+  </si>
+  <si>
+    <t>боковые скручивания</t>
+  </si>
+  <si>
+    <t>планка с предплечий</t>
+  </si>
+  <si>
+    <t>боксёрские скручивания</t>
+  </si>
+  <si>
+    <t>скололаз</t>
+  </si>
+  <si>
+    <t>лодка удержание</t>
+  </si>
+  <si>
+    <t>2 круга</t>
+  </si>
+  <si>
+    <t>подъёмы на носки с гантелями 15 (сидя)</t>
+  </si>
+  <si>
+    <t>мостик с гантелью 12</t>
+  </si>
+  <si>
+    <t>жим гантелей лёжа 12 (разл. положения)</t>
+  </si>
+  <si>
+    <t>пуловер с гантелей 15</t>
+  </si>
+  <si>
+    <t>Жим гантелей сидя 12</t>
+  </si>
+  <si>
+    <t>махи с гантелями 12 (сидя)</t>
+  </si>
+  <si>
+    <t>махи в наклоне 12</t>
+  </si>
+  <si>
+    <t>разведение гантелей лёжа 12</t>
+  </si>
+  <si>
+    <t>отжимания на опорах после тренировки</t>
+  </si>
+  <si>
+    <t>День 3</t>
+  </si>
+  <si>
+    <t>тяга гантелей в наклоне 10</t>
+  </si>
+  <si>
+    <t>тяга гантелей к бедру 12</t>
+  </si>
+  <si>
+    <t>сгибания рук стоя 15</t>
+  </si>
+  <si>
+    <t>молоток с гантелями 15</t>
+  </si>
+  <si>
+    <t>Ноги</t>
+  </si>
+  <si>
+    <t>Грудь, плечи</t>
+  </si>
+  <si>
+    <t>Спина, руки</t>
+  </si>
+  <si>
+    <t>отжимания с опорой</t>
+  </si>
+  <si>
+    <t>французский жим сидя 12</t>
   </si>
 </sst>
 </file>
@@ -106,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +221,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,11 +261,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,10 +287,19 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -206,6 +308,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -480,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I10" sqref="I10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,127 +602,281 @@
     <col min="4" max="4" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+  <mergeCells count="41">
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
